--- a/Banco Central/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
+++ b/Banco Central/4/Tipo de cambio nominal 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Serie</t>
   </si>
@@ -1185,6 +1185,9 @@
   <si>
     <t>01-06-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH331"/>
+  <dimension ref="A1:BH332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53857,6 +53860,188 @@
         <v>195.07</v>
       </c>
     </row>
+    <row r="332" spans="1:60">
+      <c r="A332" t="s">
+        <v>390</v>
+      </c>
+      <c r="B332">
+        <v>23.03</v>
+      </c>
+      <c r="C332">
+        <v>750.4400000000001</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>109.39</v>
+      </c>
+      <c r="F332">
+        <v>1.21</v>
+      </c>
+      <c r="G332">
+        <v>34.62</v>
+      </c>
+      <c r="H332">
+        <v>119.32</v>
+      </c>
+      <c r="I332">
+        <v>6.04</v>
+      </c>
+      <c r="J332">
+        <v>85.59</v>
+      </c>
+      <c r="K332">
+        <v>87.09</v>
+      </c>
+      <c r="L332">
+        <v>1068.04</v>
+      </c>
+      <c r="M332">
+        <v>204.37</v>
+      </c>
+      <c r="N332">
+        <v>84.02</v>
+      </c>
+      <c r="O332">
+        <v>557.4400000000001</v>
+      </c>
+      <c r="P332">
+        <v>599.75</v>
+      </c>
+      <c r="Q332">
+        <v>750.4400000000001</v>
+      </c>
+      <c r="R332">
+        <v>750.4400000000001</v>
+      </c>
+      <c r="S332">
+        <v>359.59</v>
+      </c>
+      <c r="T332">
+        <v>915.17</v>
+      </c>
+      <c r="U332">
+        <v>750.4400000000001</v>
+      </c>
+      <c r="V332">
+        <v>554.04</v>
+      </c>
+      <c r="W332">
+        <v>96.58</v>
+      </c>
+      <c r="X332">
+        <v>523.87</v>
+      </c>
+      <c r="Y332">
+        <v>26.81</v>
+      </c>
+      <c r="Z332">
+        <v>0.03</v>
+      </c>
+      <c r="AA332">
+        <v>887.3200000000001</v>
+      </c>
+      <c r="AB332">
+        <v>2.49</v>
+      </c>
+      <c r="AC332">
+        <v>7.47</v>
+      </c>
+      <c r="AD332">
+        <v>817.26</v>
+      </c>
+      <c r="AE332">
+        <v>0.11</v>
+      </c>
+      <c r="AF332">
+        <v>27.76</v>
+      </c>
+      <c r="AG332">
+        <v>180.25</v>
+      </c>
+      <c r="AH332">
+        <v>47.94</v>
+      </c>
+      <c r="AI332">
+        <v>1036.17</v>
+      </c>
+      <c r="AJ332">
+        <v>87.19</v>
+      </c>
+      <c r="AK332">
+        <v>190.79</v>
+      </c>
+      <c r="AL332">
+        <v>7.8</v>
+      </c>
+      <c r="AM332">
+        <v>0.2</v>
+      </c>
+      <c r="AN332">
+        <v>31.27</v>
+      </c>
+      <c r="AO332">
+        <v>13.19</v>
+      </c>
+      <c r="AP332">
+        <v>15.02</v>
+      </c>
+      <c r="AQ332">
+        <v>37.57</v>
+      </c>
+      <c r="AR332">
+        <v>17.16</v>
+      </c>
+      <c r="AS332">
+        <v>97.16</v>
+      </c>
+      <c r="AT332">
+        <v>51.69</v>
+      </c>
+      <c r="AU332">
+        <v>145.6</v>
+      </c>
+      <c r="AV332">
+        <v>0.02</v>
+      </c>
+      <c r="AW332">
+        <v>200.12</v>
+      </c>
+      <c r="AX332">
+        <v>178.78</v>
+      </c>
+      <c r="AY332">
+        <v>10.15</v>
+      </c>
+      <c r="AZ332">
+        <v>10.07</v>
+      </c>
+      <c r="BA332">
+        <v>0.05</v>
+      </c>
+      <c r="BB332">
+        <v>4.71</v>
+      </c>
+      <c r="BC332">
+        <v>229.54</v>
+      </c>
+      <c r="BD332">
+        <v>1.76</v>
+      </c>
+      <c r="BE332">
+        <v>0.66</v>
+      </c>
+      <c r="BF332">
+        <v>6.8</v>
+      </c>
+      <c r="BG332">
+        <v>115.85</v>
+      </c>
+      <c r="BH332">
+        <v>194.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
